--- a/kernel-3.10/tools/dct/распиновка_mt6795.xlsx
+++ b/kernel-3.10/tools/dct/распиновка_mt6795.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smosia/Desktop/henessy/kernel-3.10/tools/dct/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smosia/Desktop/hennessy_kernel_5.0.2/kernel-3.10/tools/dct/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="1095">
   <si>
     <t>GPIO0</t>
   </si>
@@ -3021,6 +3021,9 @@
     <t>GPIO_UART_UTXD0_PIN</t>
   </si>
   <si>
+    <t>??</t>
+  </si>
+  <si>
     <t>GPIO_PCM_DAICLK_PIN</t>
   </si>
   <si>
@@ -3292,6 +3295,24 @@
   </si>
   <si>
     <t>GPIO_EXT_MD</t>
+  </si>
+  <si>
+    <t>сим?</t>
+  </si>
+  <si>
+    <t>точно сим! Out в выкл включ in</t>
+  </si>
+  <si>
+    <t>SIM  точно! In</t>
+  </si>
+  <si>
+    <t>sim?</t>
+  </si>
+  <si>
+    <t>sw_en</t>
+  </si>
+  <si>
+    <t>s1</t>
   </si>
 </sst>
 </file>
@@ -14696,8 +14717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14705,7 +14726,7 @@
     <col min="1" max="1" width="7.1640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="11" customWidth="1"/>
     <col min="7" max="8" width="9.6640625" style="11" customWidth="1"/>
@@ -14757,7 +14778,7 @@
         <v>691</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -14788,16 +14809,16 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -14834,13 +14855,13 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N3" t="s">
         <v>1087</v>
       </c>
-      <c r="N3" t="s">
-        <v>1086</v>
-      </c>
       <c r="Q3" s="20" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="R3" s="21"/>
     </row>
@@ -14875,13 +14896,13 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="R4" s="21"/>
     </row>
@@ -14913,16 +14934,16 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -14956,16 +14977,16 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N6" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -14994,21 +15015,21 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N7" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O7" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="R7" s="20"/>
     </row>
@@ -15043,13 +15064,13 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -15080,10 +15101,10 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N9" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="20"/>
@@ -15120,16 +15141,16 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N10" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -15160,13 +15181,13 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N11" t="s">
         <v>937</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="R11" s="21"/>
     </row>
@@ -15203,13 +15224,13 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="N12" t="s">
         <v>937</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="R12" s="21"/>
     </row>
@@ -15247,10 +15268,10 @@
         <v>937</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -15286,13 +15307,13 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N14" t="s">
         <v>937</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="R14" s="21"/>
     </row>
@@ -15327,13 +15348,13 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="N15" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="Q15" s="20" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="R15" s="21"/>
     </row>
@@ -15368,13 +15389,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="N16" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="R16" s="21"/>
     </row>
@@ -15409,13 +15430,13 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="N17" t="s">
         <v>937</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="R17" s="21"/>
     </row>
@@ -15450,13 +15471,13 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N18" t="s">
         <v>937</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="R18" s="21"/>
     </row>
@@ -15486,18 +15507,18 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N19" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="R19" s="21"/>
     </row>
@@ -15527,21 +15548,21 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N20" t="s">
         <v>937</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -15570,18 +15591,18 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="N21" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="R21" s="20"/>
     </row>
@@ -15611,12 +15632,12 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="Q22" s="20" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="R22" s="20"/>
     </row>
@@ -15646,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -15677,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -15708,7 +15729,7 @@
         <v>-2</v>
       </c>
       <c r="I25" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -15739,7 +15760,7 @@
         <v>-2</v>
       </c>
       <c r="I26" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -15770,7 +15791,7 @@
         <v>-2</v>
       </c>
       <c r="I27" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -15801,7 +15822,7 @@
         <v>-2</v>
       </c>
       <c r="I28" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -15832,7 +15853,7 @@
         <v>-2</v>
       </c>
       <c r="I29" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -15863,7 +15884,7 @@
         <v>-2</v>
       </c>
       <c r="I30" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -15956,10 +15977,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -15990,10 +16011,10 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -16024,7 +16045,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -16055,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -16086,12 +16107,12 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="N37" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -16120,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -16182,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -17626,6 +17647,9 @@
       <c r="I87" t="s">
         <v>5</v>
       </c>
+      <c r="J87" t="s">
+        <v>1092</v>
+      </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
     </row>
@@ -17812,6 +17836,9 @@
       <c r="I93" t="s">
         <v>5</v>
       </c>
+      <c r="J93" t="s">
+        <v>1092</v>
+      </c>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
     </row>
@@ -17874,9 +17901,7 @@
       <c r="I95" t="s">
         <v>957</v>
       </c>
-      <c r="J95" s="18" t="s">
-        <v>1018</v>
-      </c>
+      <c r="J95" s="18"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
     </row>
@@ -18027,7 +18052,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
@@ -18058,11 +18083,11 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="11" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -18216,7 +18241,7 @@
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="11" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -18650,8 +18675,13 @@
       <c r="I120" s="19" t="s">
         <v>993</v>
       </c>
+      <c r="J120" t="s">
+        <v>1090</v>
+      </c>
       <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
+      <c r="L120" s="11" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
@@ -19011,7 +19041,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
@@ -19042,11 +19072,11 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="K133" s="11"/>
       <c r="L133" s="11" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -19759,6 +19789,9 @@
       <c r="I156" t="s">
         <v>971</v>
       </c>
+      <c r="J156" t="s">
+        <v>1089</v>
+      </c>
       <c r="K156" s="11"/>
       <c r="L156" s="11"/>
     </row>
@@ -20038,6 +20071,9 @@
       <c r="I165" t="s">
         <v>980</v>
       </c>
+      <c r="J165" t="s">
+        <v>1089</v>
+      </c>
       <c r="K165" s="11"/>
       <c r="L165" s="11"/>
     </row>
@@ -20563,7 +20599,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="11"/>
@@ -20594,7 +20630,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="11"/>
@@ -20625,7 +20661,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K184" s="11"/>
       <c r="L184" s="11"/>
@@ -20851,10 +20887,15 @@
       <c r="H192" s="11">
         <v>1</v>
       </c>
+      <c r="I192" t="s">
+        <v>1091</v>
+      </c>
       <c r="K192" s="11"/>
-      <c r="L192" s="11"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L192" s="11" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>890</v>
       </c>
@@ -20882,7 +20923,7 @@
       <c r="K193" s="11"/>
       <c r="L193" s="11"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>891</v>
       </c>
@@ -20909,8 +20950,11 @@
       </c>
       <c r="K194" s="11"/>
       <c r="L194" s="11"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>892</v>
       </c>
@@ -20938,7 +20982,7 @@
       <c r="K195" s="11"/>
       <c r="L195" s="11"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>893</v>
       </c>
@@ -20966,7 +21010,7 @@
       <c r="K196" s="11"/>
       <c r="L196" s="11"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>894</v>
       </c>
@@ -20994,7 +21038,7 @@
       <c r="K197" s="11"/>
       <c r="L197" s="11"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>895</v>
       </c>
@@ -21022,7 +21066,7 @@
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
         <v>896</v>
       </c>
@@ -21053,7 +21097,7 @@
       <c r="K199" s="11"/>
       <c r="L199" s="11"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>897</v>
       </c>
@@ -21084,7 +21128,7 @@
       <c r="K200" s="11"/>
       <c r="L200" s="11"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>898</v>
       </c>
@@ -21115,7 +21159,7 @@
       <c r="K201" s="11"/>
       <c r="L201" s="11"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>899</v>
       </c>
@@ -21146,7 +21190,7 @@
       <c r="K202" s="11"/>
       <c r="L202" s="11"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>900</v>
       </c>
@@ -21177,7 +21221,7 @@
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>901</v>
       </c>
@@ -21208,7 +21252,7 @@
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>902</v>
       </c>
@@ -21239,7 +21283,7 @@
       <c r="K205" s="11"/>
       <c r="L205" s="11"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>903</v>
       </c>
@@ -21270,7 +21314,7 @@
       <c r="K206" s="11"/>
       <c r="L206" s="11"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>904</v>
       </c>
@@ -21301,7 +21345,7 @@
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>905</v>
       </c>

--- a/kernel-3.10/tools/dct/распиновка_mt6795.xlsx
+++ b/kernel-3.10/tools/dct/распиновка_mt6795.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="440" windowWidth="28800" windowHeight="15960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2859,9 +2859,6 @@
     <t>GPIO_CAMERA_CMPDN1_PIN</t>
   </si>
   <si>
-    <t>GPIO_CAMERA_PDN_PIN</t>
-  </si>
-  <si>
     <t>GPIO_CAMERA_FLASH_EN_PIN</t>
   </si>
   <si>
@@ -3313,6 +3310,9 @@
   </si>
   <si>
     <t>s1</t>
+  </si>
+  <si>
+    <t>GPIO_CAMERA_CMPDN_PIN</t>
   </si>
 </sst>
 </file>
@@ -3552,10 +3552,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3616,18 +3616,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3959,13 +3947,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -3980,6 +3961,25 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -3991,27 +3991,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:R214" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:R214" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="A1:R214"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Столбец1" dataDxfId="30"/>
-    <tableColumn id="2" name="MODE0" dataDxfId="29"/>
-    <tableColumn id="3" name="MODE1" dataDxfId="28"/>
-    <tableColumn id="4" name="MODE2" dataDxfId="27"/>
-    <tableColumn id="5" name="MODE3" dataDxfId="26"/>
-    <tableColumn id="6" name="MODE4" dataDxfId="25"/>
-    <tableColumn id="7" name="MODE5" dataDxfId="24"/>
-    <tableColumn id="8" name="MODE6" dataDxfId="23"/>
-    <tableColumn id="9" name="MODE7" dataDxfId="22"/>
-    <tableColumn id="10" name="Столбец2" dataDxfId="21"/>
-    <tableColumn id="11" name="Столбец3" dataDxfId="20"/>
-    <tableColumn id="12" name="Столбец4" dataDxfId="19"/>
-    <tableColumn id="13" name="Столбец5" dataDxfId="18"/>
-    <tableColumn id="14" name="Столбец6" dataDxfId="17"/>
-    <tableColumn id="15" name="Столбец7" dataDxfId="16"/>
-    <tableColumn id="16" name="Столбец8" dataDxfId="15"/>
-    <tableColumn id="17" name="Столбец9" dataDxfId="14"/>
-    <tableColumn id="18" name="Столбец10" dataDxfId="13"/>
+    <tableColumn id="1" name="Столбец1" dataDxfId="29"/>
+    <tableColumn id="2" name="MODE0" dataDxfId="28"/>
+    <tableColumn id="3" name="MODE1" dataDxfId="27"/>
+    <tableColumn id="4" name="MODE2" dataDxfId="26"/>
+    <tableColumn id="5" name="MODE3" dataDxfId="25"/>
+    <tableColumn id="6" name="MODE4" dataDxfId="24"/>
+    <tableColumn id="7" name="MODE5" dataDxfId="23"/>
+    <tableColumn id="8" name="MODE6" dataDxfId="22"/>
+    <tableColumn id="9" name="MODE7" dataDxfId="21"/>
+    <tableColumn id="10" name="Столбец2" dataDxfId="20"/>
+    <tableColumn id="11" name="Столбец3" dataDxfId="19"/>
+    <tableColumn id="12" name="Столбец4" dataDxfId="18"/>
+    <tableColumn id="13" name="Столбец5" dataDxfId="17"/>
+    <tableColumn id="14" name="Столбец6" dataDxfId="16"/>
+    <tableColumn id="15" name="Столбец7" dataDxfId="15"/>
+    <tableColumn id="16" name="Столбец8" dataDxfId="14"/>
+    <tableColumn id="17" name="Столбец9" dataDxfId="13"/>
+    <tableColumn id="18" name="Столбец10" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4025,14 +4025,14 @@
     <tableColumn id="2" name="[MODE]" dataDxfId="8"/>
     <tableColumn id="3" name="[PULL EN]" dataDxfId="7"/>
     <tableColumn id="4" name="[PULL_SEL]" dataDxfId="6"/>
+    <tableColumn id="7" name="[DIR]" dataDxfId="0"/>
     <tableColumn id="5" name="[DIN]" dataDxfId="5"/>
     <tableColumn id="6" name="[DOUT]" dataDxfId="4"/>
-    <tableColumn id="7" name="[DIR]" dataDxfId="3"/>
-    <tableColumn id="8" name="[IES]" dataDxfId="2"/>
+    <tableColumn id="8" name="[IES]" dataDxfId="3"/>
     <tableColumn id="9" name="Eint"/>
     <tableColumn id="11" name="Столбец2"/>
-    <tableColumn id="10" name="Столбец1" dataDxfId="1"/>
-    <tableColumn id="12" name="Столбец12" dataDxfId="0"/>
+    <tableColumn id="10" name="Столбец1" dataDxfId="2"/>
+    <tableColumn id="12" name="Столбец12" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14717,8 +14717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14727,17 +14727,17 @@
     <col min="2" max="2" width="10.33203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="11" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="22.1640625" customWidth="1"/>
-    <col min="17" max="17" width="29.83203125" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="26.5" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="18" max="18" width="29.83203125" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -14754,13 +14754,13 @@
         <v>914</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>916</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>917</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>918</v>
@@ -14778,7 +14778,7 @@
         <v>691</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -14806,19 +14806,20 @@
       <c r="H2" s="11">
         <v>1</v>
       </c>
+      <c r="I2"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="N2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>1021</v>
+        <v>1018</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -14835,10 +14836,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
@@ -14850,20 +14851,20 @@
         <v>922</v>
       </c>
       <c r="J3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="N3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R3" s="21"/>
+        <v>1018</v>
+      </c>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -14879,10 +14880,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
@@ -14890,21 +14891,22 @@
       <c r="H4" s="11">
         <v>1</v>
       </c>
+      <c r="I4"/>
       <c r="J4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N4" t="s">
         <v>1035</v>
       </c>
-      <c r="N4" t="s">
-        <v>1036</v>
-      </c>
       <c r="Q4" s="20" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R4" s="21"/>
+        <v>1019</v>
+      </c>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -14931,19 +14933,20 @@
       <c r="H5" s="11">
         <v>1</v>
       </c>
+      <c r="I5"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N5" t="s">
         <v>1037</v>
       </c>
-      <c r="N5" t="s">
-        <v>1038</v>
-      </c>
       <c r="Q5" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -14960,10 +14963,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -14977,16 +14980,16 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N6" t="s">
         <v>1040</v>
       </c>
-      <c r="N6" t="s">
-        <v>1041</v>
-      </c>
       <c r="Q6" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -15003,10 +15006,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -15015,21 +15018,21 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N7" t="s">
         <v>1042</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>1043</v>
       </c>
-      <c r="O7" t="s">
-        <v>1044</v>
-      </c>
       <c r="Q7" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="R7" s="20"/>
     </row>
@@ -15047,10 +15050,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
@@ -15064,13 +15067,13 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -15098,15 +15101,16 @@
       <c r="H9" s="11">
         <v>1</v>
       </c>
+      <c r="I9"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N9" t="s">
         <v>1046</v>
       </c>
-      <c r="N9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="Q9" s="22"/>
+      <c r="Q9" s="21"/>
       <c r="R9" s="20"/>
       <c r="S9" s="15"/>
     </row>
@@ -15124,10 +15128,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -15141,16 +15145,16 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>1060</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>1082</v>
+        <v>1059</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -15178,18 +15182,19 @@
       <c r="H11" s="11">
         <v>1</v>
       </c>
+      <c r="I11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="N11" t="s">
         <v>937</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="R11" s="21"/>
+        <v>1076</v>
+      </c>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -15205,10 +15210,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="11">
         <v>0</v>
@@ -15220,19 +15225,19 @@
         <v>925</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="N12" t="s">
         <v>937</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>1078</v>
-      </c>
-      <c r="R12" s="21"/>
+        <v>1077</v>
+      </c>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -15259,19 +15264,20 @@
       <c r="H13" s="11">
         <v>1</v>
       </c>
+      <c r="I13"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N13" t="s">
         <v>937</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>1083</v>
+        <v>1060</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -15303,19 +15309,19 @@
         <v>927</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="N14" t="s">
         <v>937</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>1062</v>
-      </c>
-      <c r="R14" s="21"/>
+        <v>1061</v>
+      </c>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -15348,15 +15354,15 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N15" t="s">
         <v>1052</v>
       </c>
-      <c r="N15" t="s">
-        <v>1053</v>
-      </c>
       <c r="Q15" s="20" t="s">
-        <v>1063</v>
-      </c>
-      <c r="R15" s="21"/>
+        <v>1062</v>
+      </c>
+      <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -15372,13 +15378,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <v>1</v>
@@ -15389,15 +15395,15 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N16" t="s">
         <v>1055</v>
       </c>
-      <c r="N16" t="s">
-        <v>1056</v>
-      </c>
       <c r="Q16" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="R16" s="21"/>
+        <v>1063</v>
+      </c>
+      <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -15413,13 +15419,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>1</v>
@@ -15430,15 +15436,15 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N17" t="s">
         <v>937</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>1071</v>
-      </c>
-      <c r="R17" s="21"/>
+        <v>1070</v>
+      </c>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -15454,10 +15460,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="11">
         <v>0</v>
@@ -15466,20 +15472,20 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="N18" t="s">
         <v>937</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="R18" s="21"/>
+        <v>1071</v>
+      </c>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -15495,32 +15501,32 @@
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="N19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>1073</v>
-      </c>
-      <c r="R19" s="21"/>
+        <v>1072</v>
+      </c>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -15539,30 +15545,30 @@
         <v>1</v>
       </c>
       <c r="F20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="11">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="N20" t="s">
         <v>937</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -15579,10 +15585,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
@@ -15591,18 +15597,18 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N21" t="s">
         <v>1074</v>
       </c>
-      <c r="N21" t="s">
-        <v>1075</v>
-      </c>
       <c r="Q21" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R21" s="20"/>
     </row>
@@ -15620,24 +15626,24 @@
         <v>0</v>
       </c>
       <c r="E22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="11">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="Q22" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R22" s="20"/>
     </row>
@@ -15655,19 +15661,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -15698,7 +15704,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -15717,10 +15723,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -15729,7 +15735,7 @@
         <v>-2</v>
       </c>
       <c r="I25" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -15748,10 +15754,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="11">
         <v>0</v>
@@ -15760,7 +15766,7 @@
         <v>-2</v>
       </c>
       <c r="I26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -15779,10 +15785,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11">
         <v>0</v>
@@ -15791,7 +15797,7 @@
         <v>-2</v>
       </c>
       <c r="I27" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -15810,10 +15816,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11">
         <v>0</v>
@@ -15822,7 +15828,7 @@
         <v>-2</v>
       </c>
       <c r="I28" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -15841,19 +15847,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
       </c>
       <c r="G29" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="11">
         <v>-2</v>
       </c>
       <c r="I29" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -15872,10 +15878,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
@@ -15884,7 +15890,7 @@
         <v>-2</v>
       </c>
       <c r="I30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -15903,10 +15909,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
@@ -15965,10 +15971,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="11">
         <v>0</v>
@@ -15977,10 +15983,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -16002,19 +16008,19 @@
         <v>1</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -16033,19 +16039,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
       </c>
       <c r="G35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="11">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -16076,7 +16082,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -16095,24 +16101,24 @@
         <v>0</v>
       </c>
       <c r="E37" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
       </c>
       <c r="G37" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="11">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="N37" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -16129,19 +16135,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="11">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -16203,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -16233,6 +16239,7 @@
       <c r="H41" s="11">
         <v>1</v>
       </c>
+      <c r="I41"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
     </row>
@@ -16250,13 +16257,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
       </c>
       <c r="G42" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="11">
         <v>1</v>
@@ -16281,19 +16288,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="11">
         <v>0</v>
       </c>
       <c r="G43" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="11">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>943</v>
+        <v>1094</v>
       </c>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
@@ -16312,13 +16319,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>
       </c>
       <c r="G44" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="11">
         <v>1</v>
@@ -16343,10 +16350,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="11">
         <v>0</v>
@@ -16355,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -16374,10 +16381,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -16386,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -16405,10 +16412,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -16417,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -16436,10 +16443,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -16448,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -16467,13 +16474,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="11">
         <v>0</v>
       </c>
       <c r="G49" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="11">
         <v>1</v>
@@ -16498,13 +16505,13 @@
         <v>0</v>
       </c>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="11">
         <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="11">
         <v>1</v>
@@ -16529,13 +16536,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="11">
         <v>0</v>
       </c>
       <c r="G51" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="11">
         <v>1</v>
@@ -16560,17 +16567,18 @@
         <v>0</v>
       </c>
       <c r="E52" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="11">
         <v>0</v>
       </c>
       <c r="G52" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="11">
         <v>1</v>
       </c>
+      <c r="I52"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
     </row>
@@ -16588,13 +16596,13 @@
         <v>0</v>
       </c>
       <c r="E53" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="11">
         <v>0</v>
       </c>
       <c r="G53" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="11">
         <v>1</v>
@@ -16630,6 +16638,7 @@
       <c r="H54" s="11">
         <v>1</v>
       </c>
+      <c r="I54"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
     </row>
@@ -16658,6 +16667,7 @@
       <c r="H55" s="11">
         <v>1</v>
       </c>
+      <c r="I55"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
     </row>
@@ -16675,13 +16685,13 @@
         <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="11">
         <v>1</v>
@@ -16706,13 +16716,13 @@
         <v>0</v>
       </c>
       <c r="E57" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="11">
         <v>0</v>
       </c>
       <c r="G57" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="11">
         <v>1</v>
@@ -16748,6 +16758,7 @@
       <c r="H58" s="11">
         <v>1</v>
       </c>
+      <c r="I58"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
     </row>
@@ -16765,10 +16776,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="11">
         <v>0</v>
@@ -16777,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
@@ -16808,7 +16819,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
@@ -16827,13 +16838,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="11">
         <v>0</v>
       </c>
       <c r="G61" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="11">
         <v>1</v>
@@ -16858,13 +16869,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="11">
         <v>0</v>
       </c>
       <c r="G62" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="11">
         <v>1</v>
@@ -16889,13 +16900,13 @@
         <v>0</v>
       </c>
       <c r="E63" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="11">
         <v>0</v>
       </c>
       <c r="G63" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="11">
         <v>1</v>
@@ -16920,13 +16931,13 @@
         <v>0</v>
       </c>
       <c r="E64" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="11">
         <v>0</v>
       </c>
       <c r="G64" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="11">
         <v>1</v>
@@ -17044,13 +17055,13 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="11">
         <v>0</v>
       </c>
       <c r="G68" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="11">
         <v>1</v>
@@ -17106,13 +17117,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="11">
         <v>0</v>
       </c>
       <c r="G70" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="11">
         <v>1</v>
@@ -17230,13 +17241,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="11">
         <v>0</v>
       </c>
       <c r="G74" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="11">
         <v>1</v>
@@ -17264,10 +17275,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="11">
         <v>1</v>
@@ -17292,13 +17303,13 @@
         <v>0</v>
       </c>
       <c r="E76" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="11">
         <v>0</v>
       </c>
       <c r="G76" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="11">
         <v>1</v>
@@ -17323,13 +17334,13 @@
         <v>0</v>
       </c>
       <c r="E77" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="11">
         <v>0</v>
       </c>
       <c r="G77" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="11">
         <v>1</v>
@@ -17354,13 +17365,13 @@
         <v>0</v>
       </c>
       <c r="E78" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="11">
         <v>0</v>
       </c>
       <c r="G78" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="11">
         <v>1</v>
@@ -17385,13 +17396,13 @@
         <v>0</v>
       </c>
       <c r="E79" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="11">
         <v>0</v>
       </c>
       <c r="G79" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="11">
         <v>1</v>
@@ -17447,13 +17458,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="11">
         <v>0</v>
       </c>
       <c r="G81" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="11">
         <v>1</v>
@@ -17478,13 +17489,13 @@
         <v>0</v>
       </c>
       <c r="E82" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="11">
         <v>0</v>
       </c>
       <c r="G82" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="11">
         <v>1</v>
@@ -17509,13 +17520,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="11">
         <v>0</v>
       </c>
       <c r="G83" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="11">
         <v>1</v>
@@ -17540,13 +17551,13 @@
         <v>0</v>
       </c>
       <c r="E84" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="11">
         <v>0</v>
       </c>
       <c r="G84" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="11">
         <v>1</v>
@@ -17574,10 +17585,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="11">
         <v>1</v>
@@ -17605,10 +17616,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="11">
         <v>1</v>
@@ -17633,13 +17644,13 @@
         <v>0</v>
       </c>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="11">
         <v>0</v>
       </c>
       <c r="G87" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="11">
         <v>1</v>
@@ -17648,7 +17659,7 @@
         <v>5</v>
       </c>
       <c r="J87" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
@@ -17667,13 +17678,13 @@
         <v>0</v>
       </c>
       <c r="E88" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="11">
         <v>0</v>
       </c>
       <c r="G88" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" s="11">
         <v>1</v>
@@ -17698,13 +17709,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="11">
         <v>0</v>
       </c>
       <c r="G89" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="11">
         <v>1</v>
@@ -17729,13 +17740,13 @@
         <v>0</v>
       </c>
       <c r="E90" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="11">
         <v>0</v>
       </c>
       <c r="G90" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="11">
         <v>1</v>
@@ -17760,13 +17771,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="11">
         <v>0</v>
       </c>
       <c r="G91" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="11">
         <v>1</v>
@@ -17791,19 +17802,19 @@
         <v>0</v>
       </c>
       <c r="E92" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="11">
         <v>0</v>
       </c>
       <c r="G92" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="11">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
@@ -17822,13 +17833,13 @@
         <v>0</v>
       </c>
       <c r="E93" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="11">
         <v>0</v>
       </c>
       <c r="G93" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="11">
         <v>1</v>
@@ -17837,7 +17848,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
@@ -17856,13 +17867,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="11">
         <v>0</v>
       </c>
       <c r="G94" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="11">
         <v>1</v>
@@ -17899,7 +17910,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J95" s="18"/>
       <c r="K95" s="11"/>
@@ -17919,19 +17930,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="11">
         <v>0</v>
       </c>
       <c r="G96" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="11">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
@@ -17950,19 +17961,19 @@
         <v>0</v>
       </c>
       <c r="E97" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="11">
         <v>0</v>
       </c>
       <c r="G97" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="11">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
@@ -17981,19 +17992,19 @@
         <v>0</v>
       </c>
       <c r="E98" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="11">
         <v>0</v>
       </c>
       <c r="G98" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="11">
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
@@ -18012,17 +18023,18 @@
         <v>0</v>
       </c>
       <c r="E99" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="11">
         <v>0</v>
       </c>
       <c r="G99" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="11">
         <v>1</v>
       </c>
+      <c r="I99"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
     </row>
@@ -18040,10 +18052,10 @@
         <v>1</v>
       </c>
       <c r="E100" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="11">
         <v>0</v>
@@ -18052,7 +18064,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
@@ -18071,23 +18083,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="11">
         <v>0</v>
       </c>
       <c r="G101" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="11">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -18104,13 +18116,13 @@
         <v>1</v>
       </c>
       <c r="E102" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="11">
         <v>0</v>
       </c>
       <c r="G102" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="11">
         <v>-2</v>
@@ -18209,7 +18221,7 @@
         <v>-2</v>
       </c>
       <c r="I105" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
@@ -18228,20 +18240,21 @@
         <v>1</v>
       </c>
       <c r="E106" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="11">
         <v>0</v>
       </c>
       <c r="G106" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="11">
         <v>-2</v>
       </c>
+      <c r="I106"/>
       <c r="K106" s="11"/>
       <c r="L106" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -18301,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
@@ -18351,10 +18364,10 @@
         <v>1</v>
       </c>
       <c r="E110" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="11">
         <v>0</v>
@@ -18382,10 +18395,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="11">
         <v>0</v>
@@ -18413,10 +18426,10 @@
         <v>1</v>
       </c>
       <c r="E112" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="11">
         <v>0</v>
@@ -18444,13 +18457,13 @@
         <v>0</v>
       </c>
       <c r="E113" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="11">
         <v>0</v>
       </c>
       <c r="G113" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="11">
         <v>1</v>
@@ -18506,10 +18519,10 @@
         <v>1</v>
       </c>
       <c r="E115" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="11">
         <v>0</v>
@@ -18518,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K115" s="11"/>
       <c r="L115" s="11"/>
@@ -18549,7 +18562,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
@@ -18580,7 +18593,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
@@ -18611,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
@@ -18630,10 +18643,10 @@
         <v>1</v>
       </c>
       <c r="E119" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="11">
         <v>0</v>
@@ -18642,7 +18655,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="11"/>
@@ -18673,14 +18686,14 @@
         <v>1</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J120" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -18739,6 +18752,7 @@
       <c r="H122" s="11">
         <v>1</v>
       </c>
+      <c r="I122"/>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
     </row>
@@ -18756,19 +18770,19 @@
         <v>0</v>
       </c>
       <c r="E123" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="11">
         <v>0</v>
       </c>
       <c r="G123" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="11">
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
@@ -18787,10 +18801,10 @@
         <v>1</v>
       </c>
       <c r="E124" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="11">
         <v>0</v>
@@ -18829,6 +18843,7 @@
       <c r="H125" s="11">
         <v>1</v>
       </c>
+      <c r="I125"/>
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
     </row>
@@ -18857,6 +18872,7 @@
       <c r="H126" s="11">
         <v>1</v>
       </c>
+      <c r="I126"/>
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
     </row>
@@ -18874,10 +18890,10 @@
         <v>0</v>
       </c>
       <c r="E127" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="11">
         <v>0</v>
@@ -18886,7 +18902,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
@@ -18905,10 +18921,10 @@
         <v>0</v>
       </c>
       <c r="E128" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="11">
         <v>0</v>
@@ -18917,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
@@ -18936,10 +18952,10 @@
         <v>1</v>
       </c>
       <c r="E129" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="11">
         <v>0</v>
@@ -18967,10 +18983,10 @@
         <v>1</v>
       </c>
       <c r="E130" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="11">
         <v>0</v>
@@ -18998,19 +19014,19 @@
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" s="11">
         <v>0</v>
       </c>
       <c r="G131" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" s="11">
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
@@ -19041,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
@@ -19060,23 +19076,23 @@
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" s="11">
         <v>0</v>
       </c>
       <c r="G133" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" s="11">
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K133" s="11"/>
       <c r="L133" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -19105,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
@@ -19136,7 +19152,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
@@ -19198,7 +19214,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
@@ -19217,10 +19233,10 @@
         <v>0</v>
       </c>
       <c r="E138" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="11">
         <v>0</v>
@@ -19229,7 +19245,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K138" s="11"/>
       <c r="L138" s="11"/>
@@ -19248,10 +19264,10 @@
         <v>0</v>
       </c>
       <c r="E139" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="11">
         <v>0</v>
@@ -19260,7 +19276,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K139" s="11"/>
       <c r="L139" s="11"/>
@@ -19279,13 +19295,13 @@
         <v>0</v>
       </c>
       <c r="E140" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" s="11">
         <v>0</v>
       </c>
       <c r="G140" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" s="11">
         <v>-2</v>
@@ -19310,13 +19326,13 @@
         <v>0</v>
       </c>
       <c r="E141" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" s="11">
         <v>0</v>
       </c>
       <c r="G141" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" s="11">
         <v>-2</v>
@@ -19341,13 +19357,13 @@
         <v>0</v>
       </c>
       <c r="E142" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" s="11">
         <v>0</v>
       </c>
       <c r="G142" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="11">
         <v>-2</v>
@@ -19372,13 +19388,13 @@
         <v>0</v>
       </c>
       <c r="E143" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" s="11">
         <v>0</v>
       </c>
       <c r="G143" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" s="11">
         <v>-2</v>
@@ -19403,13 +19419,13 @@
         <v>0</v>
       </c>
       <c r="E144" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" s="11">
         <v>0</v>
       </c>
       <c r="G144" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="11">
         <v>-2</v>
@@ -19434,13 +19450,13 @@
         <v>0</v>
       </c>
       <c r="E145" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" s="11">
         <v>0</v>
       </c>
       <c r="G145" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="11">
         <v>-2</v>
@@ -19465,13 +19481,13 @@
         <v>0</v>
       </c>
       <c r="E146" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" s="11">
         <v>0</v>
       </c>
       <c r="G146" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" s="11">
         <v>-2</v>
@@ -19496,13 +19512,13 @@
         <v>0</v>
       </c>
       <c r="E147" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" s="11">
         <v>0</v>
       </c>
       <c r="G147" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="11">
         <v>-2</v>
@@ -19527,13 +19543,13 @@
         <v>0</v>
       </c>
       <c r="E148" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" s="11">
         <v>0</v>
       </c>
       <c r="G148" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" s="11">
         <v>-2</v>
@@ -19558,13 +19574,13 @@
         <v>0</v>
       </c>
       <c r="E149" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="11">
         <v>0</v>
       </c>
       <c r="G149" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" s="11">
         <v>-2</v>
@@ -19589,13 +19605,13 @@
         <v>0</v>
       </c>
       <c r="E150" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" s="11">
         <v>0</v>
       </c>
       <c r="G150" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="11">
         <v>-2</v>
@@ -19620,13 +19636,13 @@
         <v>0</v>
       </c>
       <c r="E151" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" s="11">
         <v>0</v>
       </c>
       <c r="G151" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="11">
         <v>-2</v>
@@ -19651,13 +19667,13 @@
         <v>0</v>
       </c>
       <c r="E152" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" s="11">
         <v>0</v>
       </c>
       <c r="G152" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" s="11">
         <v>-2</v>
@@ -19682,13 +19698,13 @@
         <v>0</v>
       </c>
       <c r="E153" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" s="11">
         <v>0</v>
       </c>
       <c r="G153" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" s="11">
         <v>-2</v>
@@ -19716,10 +19732,10 @@
         <v>1</v>
       </c>
       <c r="F154" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" s="11">
         <v>-2</v>
@@ -19747,10 +19763,10 @@
         <v>1</v>
       </c>
       <c r="F155" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" s="11">
         <v>-2</v>
@@ -19775,10 +19791,10 @@
         <v>1</v>
       </c>
       <c r="E156" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -19787,10 +19803,10 @@
         <v>-2</v>
       </c>
       <c r="I156" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J156" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="11"/>
@@ -19809,10 +19825,10 @@
         <v>1</v>
       </c>
       <c r="E157" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" s="11">
         <v>0</v>
@@ -19821,7 +19837,7 @@
         <v>-2</v>
       </c>
       <c r="I157" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="11"/>
@@ -19840,10 +19856,10 @@
         <v>1</v>
       </c>
       <c r="E158" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" s="11">
         <v>0</v>
@@ -19852,7 +19868,7 @@
         <v>-2</v>
       </c>
       <c r="I158" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="11"/>
@@ -19871,10 +19887,10 @@
         <v>1</v>
       </c>
       <c r="E159" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" s="11">
         <v>0</v>
@@ -19883,7 +19899,7 @@
         <v>-2</v>
       </c>
       <c r="I159" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="11"/>
@@ -19902,10 +19918,10 @@
         <v>1</v>
       </c>
       <c r="E160" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" s="11">
         <v>0</v>
@@ -19914,7 +19930,7 @@
         <v>-2</v>
       </c>
       <c r="I160" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K160" s="11"/>
       <c r="L160" s="11"/>
@@ -19933,10 +19949,10 @@
         <v>1</v>
       </c>
       <c r="E161" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" s="11">
         <v>0</v>
@@ -19945,7 +19961,7 @@
         <v>-2</v>
       </c>
       <c r="I161" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K161" s="11"/>
       <c r="L161" s="11"/>
@@ -19964,10 +19980,10 @@
         <v>1</v>
       </c>
       <c r="E162" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="11">
         <v>0</v>
@@ -19976,7 +19992,7 @@
         <v>-2</v>
       </c>
       <c r="I162" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K162" s="11"/>
       <c r="L162" s="11"/>
@@ -19995,10 +20011,10 @@
         <v>1</v>
       </c>
       <c r="E163" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" s="11">
         <v>0</v>
@@ -20007,7 +20023,7 @@
         <v>-2</v>
       </c>
       <c r="I163" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K163" s="11"/>
       <c r="L163" s="11"/>
@@ -20026,10 +20042,10 @@
         <v>1</v>
       </c>
       <c r="E164" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" s="11">
         <v>0</v>
@@ -20038,7 +20054,7 @@
         <v>-2</v>
       </c>
       <c r="I164" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K164" s="11"/>
       <c r="L164" s="11"/>
@@ -20057,22 +20073,22 @@
         <v>0</v>
       </c>
       <c r="E165" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" s="11">
         <v>0</v>
       </c>
       <c r="G165" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" s="11">
         <v>-2</v>
       </c>
       <c r="I165" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J165" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K165" s="11"/>
       <c r="L165" s="11"/>
@@ -20103,7 +20119,7 @@
         <v>-2</v>
       </c>
       <c r="I166" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K166" s="11"/>
       <c r="L166" s="11"/>
@@ -20134,7 +20150,7 @@
         <v>-2</v>
       </c>
       <c r="I167" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K167" s="11"/>
       <c r="L167" s="11"/>
@@ -20165,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K168" s="11"/>
       <c r="L168" s="11"/>
@@ -20196,7 +20212,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>
@@ -20227,7 +20243,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="11"/>
@@ -20246,10 +20262,10 @@
         <v>0</v>
       </c>
       <c r="E171" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="11">
         <v>0</v>
@@ -20258,7 +20274,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K171" s="11"/>
       <c r="L171" s="11"/>
@@ -20289,7 +20305,7 @@
         <v>-2</v>
       </c>
       <c r="I172" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
@@ -20320,7 +20336,7 @@
         <v>-2</v>
       </c>
       <c r="I173" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K173" s="11"/>
       <c r="L173" s="11"/>
@@ -20351,7 +20367,7 @@
         <v>-2</v>
       </c>
       <c r="I174" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K174" s="11"/>
       <c r="L174" s="11"/>
@@ -20382,7 +20398,7 @@
         <v>-2</v>
       </c>
       <c r="I175" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
@@ -20413,7 +20429,7 @@
         <v>-2</v>
       </c>
       <c r="I176" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K176" s="11"/>
       <c r="L176" s="11"/>
@@ -20432,19 +20448,19 @@
         <v>1</v>
       </c>
       <c r="E177" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" s="11">
         <v>0</v>
       </c>
       <c r="G177" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" s="11">
         <v>-2</v>
       </c>
       <c r="I177" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K177" s="11"/>
       <c r="L177" s="11"/>
@@ -20556,13 +20572,13 @@
         <v>0</v>
       </c>
       <c r="E181" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" s="11">
         <v>1</v>
       </c>
       <c r="G181" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" s="11">
         <v>1</v>
@@ -20587,19 +20603,19 @@
         <v>0</v>
       </c>
       <c r="E182" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" s="11">
         <v>0</v>
       </c>
       <c r="G182" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" s="11">
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="11"/>
@@ -20630,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="11"/>
@@ -20649,19 +20665,19 @@
         <v>0</v>
       </c>
       <c r="E184" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" s="11">
         <v>0</v>
       </c>
       <c r="G184" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" s="11">
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K184" s="11"/>
       <c r="L184" s="11"/>
@@ -20691,6 +20707,7 @@
       <c r="H185" s="11">
         <v>1</v>
       </c>
+      <c r="I185"/>
       <c r="K185" s="11"/>
       <c r="L185" s="11"/>
     </row>
@@ -20708,17 +20725,18 @@
         <v>0</v>
       </c>
       <c r="E186" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" s="11">
         <v>0</v>
       </c>
       <c r="G186" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" s="11">
         <v>1</v>
       </c>
+      <c r="I186"/>
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
     </row>
@@ -20747,6 +20765,7 @@
       <c r="H187" s="11">
         <v>1</v>
       </c>
+      <c r="I187"/>
       <c r="K187" s="11"/>
       <c r="L187" s="11"/>
     </row>
@@ -20764,10 +20783,10 @@
         <v>0</v>
       </c>
       <c r="E188" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" s="11">
         <v>1</v>
@@ -20775,6 +20794,7 @@
       <c r="H188" s="11">
         <v>1</v>
       </c>
+      <c r="I188"/>
       <c r="K188" s="11"/>
       <c r="L188" s="11"/>
     </row>
@@ -20803,6 +20823,7 @@
       <c r="H189" s="11">
         <v>1</v>
       </c>
+      <c r="I189"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
     </row>
@@ -20823,14 +20844,15 @@
         <v>1</v>
       </c>
       <c r="F190" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190" s="11">
         <v>1</v>
       </c>
+      <c r="I190"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11"/>
     </row>
@@ -20848,17 +20870,18 @@
         <v>0</v>
       </c>
       <c r="E191" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="11">
         <v>1</v>
       </c>
       <c r="G191" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" s="11">
         <v>1</v>
       </c>
+      <c r="I191"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11"/>
     </row>
@@ -20876,10 +20899,10 @@
         <v>0</v>
       </c>
       <c r="E192" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" s="11">
         <v>0</v>
@@ -20888,11 +20911,11 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K192" s="11"/>
       <c r="L192" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -20909,10 +20932,10 @@
         <v>0</v>
       </c>
       <c r="E193" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" s="11">
         <v>0</v>
@@ -20920,6 +20943,7 @@
       <c r="H193" s="11">
         <v>1</v>
       </c>
+      <c r="I193"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11"/>
     </row>
@@ -20948,10 +20972,11 @@
       <c r="H194" s="11">
         <v>1</v>
       </c>
+      <c r="I194"/>
       <c r="K194" s="11"/>
       <c r="L194" s="11"/>
       <c r="M194" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -20979,6 +21004,7 @@
       <c r="H195" s="11">
         <v>1</v>
       </c>
+      <c r="I195"/>
       <c r="K195" s="11"/>
       <c r="L195" s="11"/>
     </row>
@@ -21007,6 +21033,7 @@
       <c r="H196" s="11">
         <v>1</v>
       </c>
+      <c r="I196"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11"/>
     </row>
@@ -21035,6 +21062,7 @@
       <c r="H197" s="11">
         <v>1</v>
       </c>
+      <c r="I197"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11"/>
     </row>
@@ -21052,17 +21080,18 @@
         <v>0</v>
       </c>
       <c r="E198" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" s="11">
         <v>0</v>
       </c>
       <c r="G198" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198" s="11">
         <v>1</v>
       </c>
+      <c r="I198"/>
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
     </row>
@@ -21092,7 +21121,7 @@
         <v>-2</v>
       </c>
       <c r="I199" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K199" s="11"/>
       <c r="L199" s="11"/>
@@ -21123,7 +21152,7 @@
         <v>-2</v>
       </c>
       <c r="I200" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K200" s="11"/>
       <c r="L200" s="11"/>
@@ -21154,7 +21183,7 @@
         <v>-2</v>
       </c>
       <c r="I201" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K201" s="11"/>
       <c r="L201" s="11"/>
@@ -21185,7 +21214,7 @@
         <v>-2</v>
       </c>
       <c r="I202" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K202" s="11"/>
       <c r="L202" s="11"/>
@@ -21216,7 +21245,7 @@
         <v>-2</v>
       </c>
       <c r="I203" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
@@ -21247,7 +21276,7 @@
         <v>-2</v>
       </c>
       <c r="I204" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
@@ -21278,7 +21307,7 @@
         <v>-2</v>
       </c>
       <c r="I205" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K205" s="11"/>
       <c r="L205" s="11"/>
@@ -21309,7 +21338,7 @@
         <v>-2</v>
       </c>
       <c r="I206" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K206" s="11"/>
       <c r="L206" s="11"/>
@@ -21340,7 +21369,7 @@
         <v>-2</v>
       </c>
       <c r="I207" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
@@ -21371,7 +21400,7 @@
         <v>-2</v>
       </c>
       <c r="I208" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K208" s="11"/>
       <c r="L208" s="11"/>
@@ -21402,7 +21431,7 @@
         <v>-2</v>
       </c>
       <c r="I209" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K209" s="11"/>
       <c r="L209" s="11"/>
@@ -21433,7 +21462,7 @@
         <v>-2</v>
       </c>
       <c r="I210" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K210" s="11"/>
       <c r="L210" s="11"/>
@@ -21464,7 +21493,7 @@
         <v>-2</v>
       </c>
       <c r="I211" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K211" s="11"/>
       <c r="L211" s="11"/>
@@ -21495,7 +21524,7 @@
         <v>-2</v>
       </c>
       <c r="I212" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K212" s="11"/>
       <c r="L212" s="11"/>
@@ -21526,7 +21555,7 @@
         <v>-2</v>
       </c>
       <c r="I213" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K213" s="11"/>
       <c r="L213" s="11"/>
@@ -21557,7 +21586,7 @@
         <v>-2</v>
       </c>
       <c r="I214" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K214" s="11"/>
       <c r="L214" s="11"/>
